--- a/Estoque.xlsx
+++ b/Estoque.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">Em Estoque</t>
   </si>
   <si>
-    <t xml:space="preserve">Mínimo</t>
+    <t xml:space="preserve">Minimo</t>
   </si>
   <si>
     <t xml:space="preserve">Custo Medio Unitario</t>
@@ -501,7 +501,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -542,10 +542,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -567,10 +563,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -738,10 +730,10 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.57"/>
@@ -801,7 +793,7 @@
       <c r="F2" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="5" t="n">
         <v>5</v>
       </c>
       <c r="H2" s="4"/>
@@ -809,13 +801,13 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="12" t="n">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="n">
@@ -827,7 +819,7 @@
       <c r="F3" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="n">
+      <c r="G3" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H3" s="4"/>
@@ -835,13 +827,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="12" t="n">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="n">
@@ -853,7 +845,7 @@
       <c r="F4" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="5" t="n">
         <v>11</v>
       </c>
       <c r="H4" s="4"/>
@@ -861,13 +853,13 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="12" t="n">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="n">
@@ -879,7 +871,7 @@
       <c r="F5" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="5" t="n">
         <v>12</v>
       </c>
       <c r="H5" s="4"/>
@@ -887,13 +879,13 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="n">
@@ -905,7 +897,7 @@
       <c r="F6" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="5" t="n">
         <v>13</v>
       </c>
       <c r="H6" s="4"/>
@@ -913,13 +905,13 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <v>20</v>
       </c>
       <c r="D7" s="4" t="n">
@@ -931,7 +923,7 @@
       <c r="F7" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="5" t="n">
         <v>14</v>
       </c>
       <c r="H7" s="4"/>
@@ -939,13 +931,13 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="n">
@@ -957,7 +949,7 @@
       <c r="F8" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="5" t="n">
         <v>15</v>
       </c>
       <c r="H8" s="4"/>
@@ -965,13 +957,13 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="n">
@@ -983,7 +975,7 @@
       <c r="F9" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="5" t="n">
         <v>16</v>
       </c>
       <c r="H9" s="4"/>
@@ -991,13 +983,13 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="12" t="n">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="n">
@@ -1009,7 +1001,7 @@
       <c r="F10" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="5" t="n">
         <v>17</v>
       </c>
       <c r="H10" s="4"/>
@@ -1017,13 +1009,13 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="12" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="n">
@@ -1035,7 +1027,7 @@
       <c r="F11" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="5" t="n">
         <v>18</v>
       </c>
       <c r="H11" s="4"/>
@@ -1043,13 +1035,13 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="12" t="n">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="n">
@@ -1061,7 +1053,7 @@
       <c r="F12" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="5" t="n">
         <v>19</v>
       </c>
       <c r="H12" s="4"/>
@@ -1069,13 +1061,13 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15" t="n">
+      <c r="B13" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="16" t="n">
+      <c r="C13" s="15" t="n">
         <v>50</v>
       </c>
       <c r="D13" s="4" t="n">
@@ -1087,7 +1079,7 @@
       <c r="F13" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="5" t="n">
         <v>20</v>
       </c>
       <c r="H13" s="4"/>
@@ -1095,13 +1087,13 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="15" t="n">
+      <c r="B14" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="15" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="n">
@@ -1113,7 +1105,7 @@
       <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="17" t="n">
+      <c r="G14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H14" s="4"/>
@@ -1164,7 +1156,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="4"/>
@@ -6073,7 +6065,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.86"/>
@@ -6122,271 +6114,271 @@
       <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="n">
+      <c r="D3" s="18" t="n">
         <v>42.41</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="18" t="n">
         <v>47.68</v>
       </c>
-      <c r="F3" s="20" t="n">
+      <c r="F3" s="18" t="n">
         <v>6.58</v>
       </c>
-      <c r="G3" s="21" t="n">
+      <c r="G3" s="19" t="n">
         <f aca="false">40/60</f>
         <v>0.6666666667</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="20" t="n">
+      <c r="H3" s="20"/>
+      <c r="I3" s="18" t="n">
         <f aca="false">C3*(D3+E3+F3+(G3*H3))</f>
         <v>96.67</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="18" t="n">
         <v>17.19</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="18" t="n">
         <v>29.22</v>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="18" t="n">
         <v>11.46</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="20" t="n">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="n">
         <f aca="false">C4*(D4+E4+F4+(G4*H4))</f>
         <v>57.87</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="D5" s="18" t="n">
         <v>29.95</v>
       </c>
-      <c r="E5" s="20" t="n">
+      <c r="E5" s="18" t="n">
         <v>26.17</v>
       </c>
-      <c r="F5" s="20" t="n">
+      <c r="F5" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="20" t="n">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="18" t="n">
         <f aca="false">C5*(D5+E5+F5+(G5*H5))</f>
         <v>56.12</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="20" t="n">
+      <c r="D6" s="18" t="n">
         <v>4.59</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="18" t="n">
         <v>8.61</v>
       </c>
-      <c r="F6" s="20" t="n">
+      <c r="F6" s="18" t="n">
         <v>3.27</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="20" t="n">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="18" t="n">
         <f aca="false">C6*(D6+E6+F6+(G6*H6))</f>
         <v>32.94</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="20" t="n">
+      <c r="D7" s="18" t="n">
         <v>12.06</v>
       </c>
-      <c r="E7" s="20" t="n">
+      <c r="E7" s="18" t="n">
         <v>9.57</v>
       </c>
-      <c r="F7" s="20" t="n">
+      <c r="F7" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20" t="n">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18" t="n">
         <f aca="false">C7*(D7+E7+F7+(G7*H7))</f>
         <v>21.63</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="18" t="n">
         <v>0.35</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="18" t="n">
         <v>0.18</v>
       </c>
-      <c r="F8" s="20" t="n">
+      <c r="F8" s="18" t="n">
         <v>0.04</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20" t="n">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18" t="n">
         <f aca="false">C8*(D8+E8+F8+(G8*H8))</f>
         <v>0.57</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="18" t="n">
         <v>42</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="20" t="n">
+      <c r="F9" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20" t="n">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18" t="n">
         <f aca="false">C9*(D9+E9+F9+(G9*H9))</f>
         <v>43</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="18" t="n">
         <v>20.15</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="E10" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F10" s="20" t="n">
+      <c r="F10" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20" t="n">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="n">
         <f aca="false">C10*(D10+E10+F10+(G10*H10))</f>
         <v>28.15</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="23" t="n">
         <v>24.87</v>
       </c>
-      <c r="E11" s="26" t="n">
+      <c r="E11" s="24" t="n">
         <v>18.46</v>
       </c>
-      <c r="F11" s="26" t="n">
+      <c r="F11" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="20" t="n">
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="18" t="n">
         <f aca="false">C11*(D11+E11+F11+(G11*H11))</f>
         <v>43.33</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -11390,7 +11382,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.86"/>
@@ -11439,294 +11431,294 @@
       <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="n">
+      <c r="D3" s="18" t="n">
         <v>11.57</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="18" t="n">
         <v>16.42</v>
       </c>
-      <c r="F3" s="20" t="n">
+      <c r="F3" s="18" t="n">
         <v>4.43</v>
       </c>
-      <c r="G3" s="28" t="n">
+      <c r="G3" s="26" t="n">
         <f aca="false">35/60</f>
         <v>0.5833333333</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="20" t="n">
+      <c r="H3" s="27"/>
+      <c r="I3" s="18" t="n">
         <f aca="false">C3*(D3+E3+F3+(G3*H3))</f>
         <v>32.42</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="18" t="n">
         <v>16.13</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="18" t="n">
         <v>6.5</v>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="20" t="n">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="18" t="n">
         <f aca="false">C4*(D4+E4+F4+(G4*H4))</f>
         <v>22.63</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="D5" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="20" t="n">
+      <c r="E5" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="20" t="n">
+      <c r="F5" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="20" t="n">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="18" t="n">
         <f aca="false">C5*(D5+E5+F5+(G5*H5))</f>
         <v>5</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="20" t="n">
+      <c r="D6" s="18" t="n">
         <v>29.95</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="18" t="n">
         <v>26.17</v>
       </c>
-      <c r="F6" s="20" t="n">
+      <c r="F6" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="20" t="n">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="18" t="n">
         <f aca="false">C6*(D6+E6+F6+(G6*H6))</f>
         <v>56.12</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="20" t="n">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="18" t="n">
         <f aca="false">C7*(D7+E7+F7+(G7*H7))</f>
         <v>0</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="18" t="n">
         <v>20.15</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F8" s="20" t="n">
+      <c r="F8" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="20" t="n">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="18" t="n">
         <f aca="false">C8*(D8+E8+F8+(G8*H8))</f>
         <v>28.15</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="18" t="n">
         <v>11.24</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="18" t="n">
         <v>8.45</v>
       </c>
-      <c r="F9" s="20" t="n">
+      <c r="F9" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="20" t="n">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="18" t="n">
         <f aca="false">C9*(D9+E9+F9+(G9*H9))</f>
         <v>19.69</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="18" t="n">
         <v>13.48</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="E10" s="18" t="n">
         <v>10.02</v>
       </c>
-      <c r="F10" s="20" t="n">
+      <c r="F10" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="20" t="n">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="18" t="n">
         <f aca="false">C10*(D10+E10+F10+(G10*H10))</f>
         <v>23.5</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="18" t="n">
         <v>14.92</v>
       </c>
-      <c r="E11" s="20" t="n">
+      <c r="E11" s="18" t="n">
         <v>11.37</v>
       </c>
-      <c r="F11" s="20" t="n">
+      <c r="F11" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="20" t="n">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="18" t="n">
         <f aca="false">C11*(D11+E11+F11+(G11*H11))</f>
         <v>26.29</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="18" t="n">
         <v>18.86</v>
       </c>
-      <c r="E12" s="20" t="n">
+      <c r="E12" s="18" t="n">
         <v>15.01</v>
       </c>
-      <c r="F12" s="20" t="n">
+      <c r="F12" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="20" t="n">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="18" t="n">
         <f aca="false">C12*(D12+E12+F12+(G12*H12))</f>
         <v>33.87</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -16725,7 +16717,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.57"/>
@@ -16778,156 +16770,156 @@
       <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="18" t="n">
         <v>63.59</v>
       </c>
-      <c r="F3" s="20" t="n">
+      <c r="F3" s="18" t="n">
         <v>25.57</v>
       </c>
-      <c r="G3" s="20" t="n">
+      <c r="G3" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="28" t="n">
+      <c r="H3" s="26" t="n">
         <f aca="false">35/60</f>
         <v>0.5833333333</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="20" t="n">
+      <c r="I3" s="27"/>
+      <c r="J3" s="18" t="n">
         <f aca="false">C3*(E3+F3+G3+(H3*I3))</f>
         <v>89.16</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="11" t="n">
         <v>0.025</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="18" t="n">
         <v>43.5</v>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="20" t="n">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="18" t="n">
         <f aca="false">C4*(E4+F4+G4+(H4*I4))</f>
         <v>1.0875</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="20" t="n">
+      <c r="E5" s="18" t="n">
         <v>2.5</v>
       </c>
-      <c r="F5" s="20" t="n">
+      <c r="F5" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="20" t="n">
+      <c r="G5" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="20" t="n">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="18" t="n">
         <f aca="false">C5*(E5+F5+G5+(H5*I5))</f>
         <v>2.5</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="18" t="n">
         <v>1.7</v>
       </c>
-      <c r="F6" s="20" t="n">
+      <c r="F6" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="20" t="n">
+      <c r="G6" s="18" t="n">
         <v>0.17</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="20" t="n">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="18" t="n">
         <f aca="false">C6*(E6+F6+G6+(H6*I6))</f>
         <v>26.18</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="23"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="11" t="n">
         <v>0.04</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="20" t="n">
+      <c r="E7" s="18" t="n">
         <v>299.86</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="20" t="n">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="18" t="n">
         <f aca="false">C7*(E7+F7+G7+(H7*I7))</f>
         <v>11.9944</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="24"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="4" t="n">
@@ -21942,7 +21934,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.57"/>
@@ -21995,72 +21987,72 @@
       <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="18" t="n">
         <v>63.59</v>
       </c>
-      <c r="F3" s="20" t="n">
+      <c r="F3" s="18" t="n">
         <v>25.57</v>
       </c>
-      <c r="G3" s="20" t="n">
+      <c r="G3" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="30" t="n">
+      <c r="H3" s="28" t="n">
         <f aca="false">15/60</f>
         <v>0.25</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="20" t="n">
+      <c r="I3" s="20"/>
+      <c r="J3" s="18" t="n">
         <f aca="false">C3*(E3+F3+G3+(H3*I3))</f>
         <v>89.16</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="18" t="n">
         <v>1.7</v>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="18" t="n">
         <v>0.17</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="20" t="n">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="18" t="n">
         <f aca="false">C4*(E4+F4+G4+(H4*I4))</f>
         <v>26.18</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E5" s="4" t="n">
@@ -27090,7 +27082,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
@@ -27098,58 +27090,58 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="34" t="n">
+      <c r="B2" s="32" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="34" t="n">
+      <c r="B3" s="32" t="n">
         <v>127.34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="34" t="n">
+      <c r="B4" s="32" t="n">
         <v>109.9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="34" t="n">
+      <c r="B5" s="32" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="36" t="n">
+      <c r="B6" s="34" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="38" t="n">
+      <c r="B7" s="36" t="n">
         <f aca="false">SUM(B2:B6)</f>
         <v>3037.24</v>
       </c>
